--- a/bots/crawl_ch/output/clothes_2022-07-24.xlsx
+++ b/bots/crawl_ch/output/clothes_2022-07-24.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -894,7 +894,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -1169,41 +1169,39 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3305289016</t>
+          <t>6075749003</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss XL</t>
+          <t>Avela Strumpfhose Top Size Noir  11 - 12</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-xl/p/3305289016</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-size-noir-11-12/p/6075749003</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Avela</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1212,34 +1210,34 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss XL 9.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Top Size Noir  11 - 12 50% Aktion 1.95 Schweizer Franken statt 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6031467010</t>
+          <t>3450446005</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss XXL</t>
+          <t>Naturaline Herren Shirt schwarz S</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-xxl/p/6031467010</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-shirt-schwarz-s/p/3450446005</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1254,7 +1252,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>24.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -1268,29 +1266,29 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss XXL 24.95 Schweizer Franken</t>
+          <t>Naturaline Herren Shirt schwarz S 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5796044003</t>
+          <t>3305289016</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Taschenschirm türkis gepunktet</t>
+          <t>Naturaline Herren Slip weiss XL</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-tuerkis-gepunktet/p/5796044003</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-xl/p/3305289016</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1298,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1307,7 +1305,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -1316,120 +1314,102 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Taschenschirm türkis gepunktet 14.95 Schweizer Franken</t>
+          <t>Naturaline Herren Slip weiss XL 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6077154004</t>
+          <t>6031467010</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Avela Söckchen Pure Natural One Size</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss XXL</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-soeckchen-pure-natural-one-size/p/6077154004</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-xxl/p/6031467010</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>1.48/1ST</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>24.95</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Avela Söckchen Pure Natural One Size 2.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss XXL 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6075749003</t>
+          <t>5796044003</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Size Noir  11 - 12</t>
+          <t>Taschenschirm türkis gepunktet</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-size-noir-11-12/p/6075749003</t>
+          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-tuerkis-gepunktet/p/5796044003</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -1438,68 +1418,88 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Size Noir  11 - 12 50% Aktion 1.95 Schweizer Franken statt 3.95 Schweizer Franken</t>
+          <t>Taschenschirm türkis gepunktet 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3450446005</t>
+          <t>6077154004</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Naturaline Herren Shirt schwarz S</t>
+          <t>Avela Söckchen Pure Natural One Size</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-shirt-schwarz-s/p/3450446005</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-soeckchen-pure-natural-one-size/p/6077154004</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Avela</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1.48/1ST</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Naturaline Herren Shirt schwarz S 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
+          <t>Avela Söckchen Pure Natural One Size 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -1922,7 +1922,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -2593,7 +2593,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -2899,7 +2899,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -2950,7 +2950,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -3052,7 +3052,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -3258,7 +3258,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -3364,7 +3364,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -3415,7 +3415,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -3772,7 +3772,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -3823,7 +3823,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -3874,7 +3874,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -3925,7 +3925,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -4027,7 +4027,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4220,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
@@ -4342,7 +4342,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-07-24 07:01:28</t>
+          <t>2022-07-24 20:59:03</t>
         </is>
       </c>
     </row>
